--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,13 +24,31 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
   </si>
   <si>
     <t>Начислен членский взнос 2018/2019(с 01.05.2018 по 30.04.2019)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №90</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2018/2019(с 01.05.2018 по 30.04.2019)</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2018</t>
+  </si>
+  <si>
+    <t>Начислены пени за просрочку оплаты взноса 2019</t>
+  </si>
+  <si>
+    <t>Оплачены пени за просрочку оплаты взноса 2018</t>
   </si>
 </sst>
 </file>
@@ -166,12 +184,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +500,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="D10" sqref="D5:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -498,9 +518,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -513,7 +535,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>10661.42</v>
@@ -525,7 +547,7 @@
         <v>43586</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="8">
         <v>10510.06</v>
@@ -533,33 +555,84 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5">
+        <v>10661.42</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="8">
+        <v>8758.3799999999992</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5490.63</v>
+      </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1313.76</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>5490.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>43892</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>1313.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Оплачены пени за просрочку оплаты взноса 2018</t>
+  </si>
+  <si>
+    <t>Оплачены пени за просрочку оплаты взноса 2019</t>
   </si>
 </sst>
 </file>
@@ -503,7 +506,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D5:D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -619,7 +622,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -506,7 +506,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -630,10 +630,16 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7">
+        <v>43927</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="6">
+        <v>1751.68</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Оплачены пени за просрочку оплаты взноса 2019</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -166,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -196,6 +199,8 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,10 +508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -640,6 +645,42 @@
       <c r="D11" s="6">
         <v>1751.68</v>
       </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>43963</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="14"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -201,6 +207,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -508,10 +515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -648,23 +655,50 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
+        <v>43952</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="13">
+        <v>11825</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>43963</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="13">
+      <c r="C13" s="6"/>
+      <c r="D13" s="13">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="14"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="14"/>
+      <c r="A14" s="7">
+        <v>44011</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="13">
+        <v>1000</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>43952</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>11825</v>
+      </c>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -681,6 +715,9 @@
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -208,6 +208,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,7 +519,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,7 +682,7 @@
       <c r="A14" s="7">
         <v>44011</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6"/>
@@ -696,27 +697,45 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>11825</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>44050</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>44074</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D21" s="14"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021</t>
-  </si>
-  <si>
-    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -84,7 +81,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,6 +91,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -192,7 +207,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -207,8 +221,13 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -516,10 +535,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D18" sqref="D13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,10 +552,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -547,25 +566,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="15">
         <v>10661.42</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43586</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="18">
         <v>10510.06</v>
       </c>
       <c r="D4" s="6"/>
@@ -578,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="5">
+      <c r="D5" s="15">
         <v>10661.42</v>
       </c>
     </row>
@@ -590,7 +609,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="8">
+      <c r="D6" s="18">
         <v>8758.3799999999992</v>
       </c>
     </row>
@@ -601,10 +620,10 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="17">
         <v>5490.63</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -613,10 +632,10 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="17">
         <v>1313.76</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -625,8 +644,8 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17">
         <v>5490.63</v>
       </c>
     </row>
@@ -637,8 +656,8 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17">
         <v>1313.76</v>
       </c>
     </row>
@@ -650,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="D11" s="16">
         <v>1751.68</v>
       </c>
     </row>
@@ -661,7 +680,7 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>11825</v>
       </c>
       <c r="D12" s="6"/>
@@ -674,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1000</v>
       </c>
     </row>
@@ -682,61 +701,67 @@
       <c r="A14" s="7">
         <v>44011</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>43952</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>11825</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="A15" s="7">
+        <v>44050</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>44050</v>
-      </c>
-      <c r="B16" s="16" t="s">
+        <v>44074</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>44074</v>
-      </c>
-      <c r="B17" s="16" t="s">
+        <v>44087</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="14"/>
+      <c r="A18" s="7">
+        <v>44098</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12">
+        <v>1000</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="14"/>
+      <c r="D20" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -81,7 +81,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -219,8 +225,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -228,6 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -535,10 +540,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D13:D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -572,7 +577,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>10661.42</v>
       </c>
       <c r="D3" s="5"/>
@@ -584,7 +589,7 @@
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="16">
         <v>10510.06</v>
       </c>
       <c r="D4" s="6"/>
@@ -597,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <v>10661.42</v>
       </c>
     </row>
@@ -609,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>8758.3799999999992</v>
       </c>
     </row>
@@ -620,10 +625,10 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>5490.63</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
@@ -632,10 +637,10 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>1313.76</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
@@ -644,8 +649,8 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15">
         <v>5490.63</v>
       </c>
     </row>
@@ -656,8 +661,8 @@
       <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15">
         <v>1313.76</v>
       </c>
     </row>
@@ -669,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>1751.68</v>
       </c>
     </row>
@@ -680,20 +685,20 @@
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="17">
         <v>11825</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>43963</v>
+        <v>43982</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="12">
+      <c r="D13" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -701,11 +706,11 @@
       <c r="A14" s="7">
         <v>44011</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="12">
+      <c r="D14" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -713,11 +718,11 @@
       <c r="A15" s="7">
         <v>44050</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="12">
+      <c r="D15" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -725,11 +730,11 @@
       <c r="A16" s="7">
         <v>44074</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="12">
+      <c r="D16" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -737,11 +742,11 @@
       <c r="A17" s="7">
         <v>44087</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="12">
+      <c r="D17" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -749,19 +754,49 @@
       <c r="A18" s="7">
         <v>44098</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="12">
+      <c r="D18" s="17">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="13"/>
+      <c r="A19" s="7">
+        <v>44112</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="17">
+        <v>1000</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="13"/>
+      <c r="A20" s="7">
+        <v>44122</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>44134</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="17">
+        <v>3825</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021</t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2021/2022</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -233,6 +236,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,10 +544,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -796,6 +800,30 @@
       <c r="C21" s="6"/>
       <c r="D21" s="17">
         <v>3825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>44284</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>44315</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="18">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2021/2022</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +124,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -199,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,7 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,10 +556,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -803,28 +815,88 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="A22" s="18">
         <v>44284</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="18">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+      <c r="A23" s="18">
         <v>44315</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="18">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21">
         <v>2000</v>
       </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>44340</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="20">
+        <v>12610.18</v>
+      </c>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -559,7 +559,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -863,16 +863,28 @@
       <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="7">
+        <v>44376</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21">
+        <v>2000</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="7">
+        <v>44417</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21">
+        <v>2000</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -559,7 +560,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -887,10 +888,16 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="7">
+        <v>44441</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="22">
+        <v>2000</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>Оплачено</t>
   </si>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,7 +249,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -560,7 +559,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D29" sqref="D22:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -894,16 +893,22 @@
       <c r="B28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="22">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21">
         <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="7">
+        <v>44473</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21">
+        <v>2700</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>

--- a/sputnik/personal/uch/uch90.xlsx
+++ b/sputnik/personal/uch/uch90.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Оплачено</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Аванс 2022</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +252,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -558,8 +562,8 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D29" sqref="D22:D29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -907,20 +911,32 @@
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21">
-        <v>2700</v>
+        <v>610.17999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="7">
+        <v>44473</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6">
+        <v>919.82</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="7">
+        <v>44537</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="22">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
